--- a/TOD/04_tables/себестоимостьА_в1.xlsx
+++ b/TOD/04_tables/себестоимостьА_в1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YandexDisk\Python\Ipynb\TOBD_2020\sems\07_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stuff\Education\Code\Python\Main\TOD\04_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC163B-1424-4E86-88F3-BEF58D538284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328AFB66-FAEC-4030-B63A-9B61B780218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
   </bookViews>
   <sheets>
     <sheet name="Рецептура" sheetId="3" r:id="rId1"/>
@@ -19,18 +19,10 @@
     <definedName name="рцп_пшеничный_хлеб">Рецептура!$B$4:$S$16</definedName>
     <definedName name="спр_налоги">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -553,92 +545,92 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,8 +949,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="B3:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:S3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,118 +959,118 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="28" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="40"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1327,13 +1319,13 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="7">
         <v>7</v>
       </c>
@@ -1370,16 +1362,16 @@
       <c r="R14" s="7">
         <v>0</v>
       </c>
-      <c r="S14" s="42"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="8">
         <v>0.13400000000000001</v>
       </c>
@@ -1416,16 +1408,16 @@
       <c r="R15" s="8">
         <v>0</v>
       </c>
-      <c r="S15" s="43"/>
+      <c r="S15" s="38"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1456,115 +1448,115 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="44"/>
+      <c r="S16" s="39"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="35" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="23"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="37"/>
+      <c r="R22" s="43"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -1807,13 +1799,13 @@
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="13">
         <v>7</v>
       </c>
@@ -1847,16 +1839,16 @@
       <c r="Q31" s="13">
         <v>0</v>
       </c>
-      <c r="R31" s="38"/>
+      <c r="R31" s="44"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="8">
         <v>0.25</v>
       </c>
@@ -1890,16 +1882,16 @@
       <c r="Q32" s="8">
         <v>0</v>
       </c>
-      <c r="R32" s="38"/>
+      <c r="R32" s="44"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="9" t="s">
         <v>23</v>
       </c>
@@ -1927,53 +1919,53 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="38"/>
+      <c r="R33" s="44"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="26" t="s">
@@ -1999,59 +1991,59 @@
       <c r="Y37" s="26"/>
       <c r="Z37" s="26"/>
       <c r="AA37" s="26"/>
-      <c r="AB37" s="35" t="s">
+      <c r="AB37" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="M38" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O38" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P38" s="25" t="s">
+      <c r="P38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="25" t="s">
+      <c r="Q38" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="25" t="s">
+      <c r="R38" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="25" t="s">
+      <c r="S38" s="28" t="s">
         <v>15</v>
       </c>
       <c r="T38" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="25" t="s">
+      <c r="U38" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V38" s="26" t="s">
@@ -2060,42 +2052,42 @@
       <c r="W38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="X38" s="22" t="s">
+      <c r="X38" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="36"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="42"/>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="26"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
       <c r="T39" s="26"/>
-      <c r="U39" s="25"/>
+      <c r="U39" s="28"/>
       <c r="V39" s="26"/>
       <c r="W39" s="26"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="37"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="43"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="15">
@@ -2652,13 +2644,13 @@
       <c r="AB51" s="4"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="18">
         <v>7</v>
       </c>
@@ -2722,16 +2714,16 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="24"/>
+      <c r="AB52" s="46"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="8">
         <v>0.10750000000000001</v>
       </c>
@@ -2795,16 +2787,16 @@
       <c r="AA53" s="8">
         <v>0</v>
       </c>
-      <c r="AB53" s="24"/>
+      <c r="AB53" s="46"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="14" t="s">
         <v>23</v>
       </c>
@@ -2862,7 +2854,7 @@
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="24"/>
+      <c r="AB54" s="46"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
@@ -2872,51 +2864,51 @@
       <c r="F55" s="19"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="34"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="48"/>
+      <c r="AA57" s="48"/>
+      <c r="AB57" s="48"/>
+      <c r="AC57" s="49"/>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="26" t="s">
@@ -2943,41 +2935,41 @@
       <c r="Z58" s="26"/>
       <c r="AA58" s="26"/>
       <c r="AB58" s="26"/>
-      <c r="AC58" s="35" t="s">
+      <c r="AC58" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="25" t="s">
+      <c r="I59" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="25" t="s">
+      <c r="K59" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="25" t="s">
+      <c r="L59" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M59" s="25" t="s">
+      <c r="M59" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="25" t="s">
+      <c r="N59" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="25" t="s">
+      <c r="O59" s="28" t="s">
         <v>15</v>
       </c>
       <c r="P59" s="26" t="s">
@@ -2989,7 +2981,7 @@
       <c r="R59" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="S59" s="29" t="s">
+      <c r="S59" s="50" t="s">
         <v>14</v>
       </c>
       <c r="T59" s="26" t="s">
@@ -3013,27 +3005,27 @@
       <c r="Z59" s="26"/>
       <c r="AA59" s="26"/>
       <c r="AB59" s="26"/>
-      <c r="AC59" s="36"/>
+      <c r="AC59" s="42"/>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="26"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
-      <c r="S60" s="29"/>
+      <c r="S60" s="50"/>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="26"/>
@@ -3043,7 +3035,7 @@
       <c r="Z60" s="26"/>
       <c r="AA60" s="26"/>
       <c r="AB60" s="26"/>
-      <c r="AC60" s="37"/>
+      <c r="AC60" s="43"/>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="15">
@@ -3676,13 +3668,13 @@
       <c r="AC72" s="4"/>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
       <c r="G73" s="18">
         <v>7</v>
       </c>
@@ -3743,16 +3735,16 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
-      <c r="AC73" s="24"/>
+      <c r="AC73" s="46"/>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="8">
         <v>4.3429857142857145E-2</v>
       </c>
@@ -3819,16 +3811,16 @@
       <c r="AB74" s="8">
         <v>0</v>
       </c>
-      <c r="AC74" s="24"/>
+      <c r="AC74" s="46"/>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
       <c r="G75" s="14" t="s">
         <v>23</v>
       </c>
@@ -3889,68 +3881,44 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="24"/>
+      <c r="AC75" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="R31:R33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="B36:AB36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:AA37"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="AC73:AC75"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="B57:AC57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:AB58"/>
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="AA59:AA60"/>
+    <mergeCell ref="AB59:AB60"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="AB52:AB54"/>
     <mergeCell ref="B53:F53"/>
@@ -3973,40 +3941,64 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="B57:AC57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:AB58"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="AA59:AA60"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="AC73:AC75"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B36:AB36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:AA37"/>
+    <mergeCell ref="AB37:AB39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="R31:R33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
